--- a/Jobs/Jobs.xlsx
+++ b/Jobs/Jobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>Production, Soldering</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Address: Plot no -A 14, B block  Sector 68,  Noida Uttar Pradesh 201307</t>
+  </si>
+  <si>
+    <t>blog_4.jpg</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +433,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -494,7 +497,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>

--- a/Jobs/Jobs.xlsx
+++ b/Jobs/Jobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
   <si>
     <t>Production, Soldering</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>Address: Plot no -A 14, B block  Sector 68,  Noida Uttar Pradesh 201307</t>
-  </si>
-  <si>
-    <t>blog_4.jpg</t>
   </si>
 </sst>
 </file>
@@ -390,7 +387,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -433,7 +430,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -497,7 +494,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>

--- a/Jobs/Jobs.xlsx
+++ b/Jobs/Jobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
   <si>
     <t>Production, Soldering</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>Address: Plot no -A 14, B block  Sector 68,  Noida Uttar Pradesh 201307</t>
+  </si>
+  <si>
+    <t>blog_4.jpg</t>
   </si>
 </sst>
 </file>
@@ -387,7 +390,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -430,7 +433,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -494,7 +497,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>

--- a/Jobs/Jobs.xlsx
+++ b/Jobs/Jobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="14">
   <si>
     <t>Production, Soldering</t>
   </si>
@@ -49,6 +49,15 @@
   </si>
   <si>
     <t>blog_4.jpg</t>
+  </si>
+  <si>
+    <t>Sales Officer</t>
+  </si>
+  <si>
+    <t>Field Officer</t>
+  </si>
+  <si>
+    <t>Marketing</t>
   </si>
 </sst>
 </file>
@@ -387,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A9" sqref="A9:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -436,7 +445,7 @@
         <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -468,7 +477,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -500,30 +509,254 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
         <v>0</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" t="s">
+        <v>8</v>
+      </c>
+      <c r="J5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>7</v>
+      </c>
+      <c r="I9" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>4</v>
+      </c>
+      <c r="F11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>7</v>
+      </c>
+      <c r="I11" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" t="s">
         <v>9</v>
       </c>
     </row>

--- a/Jobs/Jobs.xlsx
+++ b/Jobs/Jobs.xlsx
@@ -16,58 +16,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="3">
   <si>
-    <t>Production, Soldering</t>
+    <t>PADGET ELECTRONICS (INDIA) PVT. LTD.</t>
   </si>
   <si>
-    <t>blog_1.jpg</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Location:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Gr. Noida</t>
+    </r>
   </si>
   <si>
-    <t>blog.html</t>
-  </si>
-  <si>
-    <t>Job Posted On: 01-Jan-2025</t>
-  </si>
-  <si>
-    <t>Qualification: 10th,12th, ITI,</t>
-  </si>
-  <si>
-    <t>Salary(10th, 12th): 10648/-</t>
-  </si>
-  <si>
-    <t>Salary(ITI): 11713/-</t>
-  </si>
-  <si>
-    <t>Salary(Diploma): 13120/-</t>
-  </si>
-  <si>
-    <t>Company: PADGET ELECTRONICS (INDIA) PVT. LTD.</t>
-  </si>
-  <si>
-    <t>Address: Plot no -A 14, B block  Sector 68,  Noida Uttar Pradesh 201307</t>
-  </si>
-  <si>
-    <t>blog_4.jpg</t>
-  </si>
-  <si>
-    <t>Sales Officer</t>
-  </si>
-  <si>
-    <t>Field Officer</t>
-  </si>
-  <si>
-    <t>Marketing</t>
+    <t>Moreinfo</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -396,368 +389,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9:XFD11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
-    <col min="2" max="4" width="11.85546875" customWidth="1"/>
+    <col min="1" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" t="s">
-        <v>5</v>
-      </c>
-      <c r="G4" t="s">
-        <v>6</v>
-      </c>
-      <c r="H4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H5" t="s">
-        <v>7</v>
-      </c>
-      <c r="I5" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I6" t="s">
-        <v>8</v>
-      </c>
-      <c r="J6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" t="s">
-        <v>6</v>
-      </c>
-      <c r="H7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G9" t="s">
-        <v>6</v>
-      </c>
-      <c r="H9" t="s">
-        <v>7</v>
-      </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" t="s">
-        <v>4</v>
-      </c>
-      <c r="F10" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
-      </c>
-      <c r="H10" t="s">
-        <v>7</v>
-      </c>
-      <c r="I10" t="s">
-        <v>8</v>
-      </c>
-      <c r="J10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>6</v>
-      </c>
-      <c r="H11" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" t="s">
-        <v>8</v>
-      </c>
-      <c r="J11" t="s">
-        <v>9</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>0</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Jobs/Jobs.xlsx
+++ b/Jobs/Jobs.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="3">
   <si>
     <t>PADGET ELECTRONICS (INDIA) PVT. LTD.</t>
   </si>
@@ -392,18 +392,19 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D13"/>
+      <selection sqref="A1:A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1">
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -416,8 +417,8 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
+      <c r="A2">
+        <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>0</v>
@@ -430,8 +431,8 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
+      <c r="A3">
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>0</v>
@@ -444,8 +445,8 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
+      <c r="A4">
+        <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>0</v>
@@ -458,8 +459,8 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="A5">
+        <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>0</v>
@@ -472,8 +473,8 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
+      <c r="A6">
+        <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>0</v>
@@ -486,8 +487,8 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>0</v>
+      <c r="A7">
+        <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>0</v>
@@ -500,8 +501,8 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>0</v>
+      <c r="A8">
+        <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>0</v>
@@ -514,8 +515,8 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>0</v>
+      <c r="A9">
+        <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>0</v>
@@ -528,8 +529,8 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>0</v>
+      <c r="A10">
+        <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>0</v>
@@ -542,8 +543,8 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>0</v>
+      <c r="A11">
+        <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
@@ -556,8 +557,8 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>0</v>
+      <c r="A12">
+        <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>0</v>
@@ -570,8 +571,8 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>0</v>
+      <c r="A13">
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>0</v>
